--- a/6. 2024 SUBVENCIONES OFICIOS/ESTIMACIONES.xlsx
+++ b/6. 2024 SUBVENCIONES OFICIOS/ESTIMACIONES.xlsx
@@ -5,16 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\1.COORDINACION\6. 2024 SUBVENCIONES OFICIOS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Documents\GitHub\Matrices\6. 2024 SUBVENCIONES OFICIOS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B411BF12-1B52-4EED-B02C-4C64D927577F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67B4964D-9951-4CC1-BEFE-D6DC03AA9DA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-90" yWindow="0" windowWidth="9780" windowHeight="10170" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="APLICACIONES iNFORMATICAS" sheetId="1" r:id="rId1"/>
     <sheet name="TINTA" sheetId="2" r:id="rId2"/>
+    <sheet name="Equipo de computacion" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="46">
   <si>
     <t>VIH</t>
   </si>
@@ -144,13 +145,40 @@
   </si>
   <si>
     <t>Mouse Inalambrico USB</t>
+  </si>
+  <si>
+    <t>Cantidad</t>
+  </si>
+  <si>
+    <t>Precio</t>
+  </si>
+  <si>
+    <t>DISCO DURO EXTERNO DE 5 TB, USB 3.0 DE 2.5 PULGADAS,
+ALTA CALIDAD (ZONA 2)</t>
+  </si>
+  <si>
+    <t>COMPUTADORA DE ESCRITORIO AVANZADA CON MONITOR DE 23.5” (ZONA 1)</t>
+  </si>
+  <si>
+    <t>MULTIFUNCIONAL DE TANQUE DE TINTA A COLOR TIPO 1
+(ZONA 1)</t>
+  </si>
+  <si>
+    <t>COMPUTADORA PORTÁTIL AVANZADA (ZONA 1)</t>
+  </si>
+  <si>
+    <t>Impresora de Gran Volumen</t>
+  </si>
+  <si>
+    <t>Total + impuesto</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
+    <numFmt numFmtId="8" formatCode="&quot;L&quot;#,##0.00;[Red]\-&quot;L&quot;#,##0.00"/>
     <numFmt numFmtId="164" formatCode="&quot;L&quot;#,##0.00"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
@@ -186,7 +214,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -211,6 +239,36 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="10">
     <border>
@@ -329,7 +387,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -402,6 +460,34 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="8" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="8" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -724,12 +810,12 @@
       <selection activeCell="K26" sqref="K26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="5" max="5" width="19.453125" customWidth="1"/>
+    <col min="5" max="5" width="19.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="5:15" x14ac:dyDescent="0.35">
+    <row r="5" spans="5:15" x14ac:dyDescent="0.25">
       <c r="E5" t="s">
         <v>8</v>
       </c>
@@ -747,7 +833,7 @@
         <v>510047</v>
       </c>
     </row>
-    <row r="6" spans="5:15" x14ac:dyDescent="0.35">
+    <row r="6" spans="5:15" x14ac:dyDescent="0.25">
       <c r="F6" t="s">
         <v>2</v>
       </c>
@@ -764,7 +850,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="5:15" x14ac:dyDescent="0.35">
+    <row r="7" spans="5:15" x14ac:dyDescent="0.25">
       <c r="E7" t="s">
         <v>3</v>
       </c>
@@ -797,7 +883,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="5:15" x14ac:dyDescent="0.35">
+    <row r="8" spans="5:15" x14ac:dyDescent="0.25">
       <c r="E8" t="s">
         <v>4</v>
       </c>
@@ -836,7 +922,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="9" spans="5:15" x14ac:dyDescent="0.35">
+    <row r="9" spans="5:15" x14ac:dyDescent="0.25">
       <c r="E9" t="s">
         <v>6</v>
       </c>
@@ -875,7 +961,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="10" spans="5:15" x14ac:dyDescent="0.35">
+    <row r="10" spans="5:15" x14ac:dyDescent="0.25">
       <c r="H10" s="4">
         <f>SUM(H7:H9)</f>
         <v>28782</v>
@@ -889,7 +975,7 @@
         <v>41574</v>
       </c>
     </row>
-    <row r="14" spans="5:15" x14ac:dyDescent="0.35">
+    <row r="14" spans="5:15" x14ac:dyDescent="0.25">
       <c r="I14" s="2">
         <f>H10+K10+N10</f>
         <v>111173</v>
@@ -905,28 +991,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:O24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F3" zoomScale="52" zoomScaleNormal="52" workbookViewId="0">
+    <sheetView topLeftCell="F3" zoomScale="52" zoomScaleNormal="52" workbookViewId="0">
       <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="4" max="4" width="34" customWidth="1"/>
-    <col min="5" max="5" width="21.453125" customWidth="1"/>
-    <col min="6" max="6" width="28.6328125" customWidth="1"/>
+    <col min="5" max="5" width="21.42578125" customWidth="1"/>
+    <col min="6" max="6" width="28.5703125" customWidth="1"/>
     <col min="7" max="7" width="14" customWidth="1"/>
-    <col min="9" max="9" width="20.08984375" customWidth="1"/>
-    <col min="11" max="11" width="11.6328125" customWidth="1"/>
-    <col min="15" max="15" width="18.6328125" customWidth="1"/>
+    <col min="9" max="9" width="20.140625" customWidth="1"/>
+    <col min="11" max="11" width="11.5703125" customWidth="1"/>
+    <col min="15" max="15" width="18.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="4" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="4" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D4" s="11" t="s">
         <v>14</v>
       </c>
@@ -954,7 +1040,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="39.5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:15" ht="39" x14ac:dyDescent="0.25">
       <c r="D5" s="12"/>
       <c r="E5" s="13"/>
       <c r="F5" s="14"/>
@@ -973,7 +1059,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="D6" s="9" t="s">
         <v>10</v>
       </c>
@@ -1012,7 +1098,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="D7" s="9" t="s">
         <v>10</v>
       </c>
@@ -1047,7 +1133,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D8" s="27" t="s">
         <v>35</v>
       </c>
@@ -1081,7 +1167,7 @@
         <v>5201.45</v>
       </c>
     </row>
-    <row r="9" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D9" s="27"/>
       <c r="E9" t="s">
         <v>31</v>
@@ -1101,7 +1187,7 @@
       </c>
       <c r="L9" s="6"/>
       <c r="M9">
-        <f t="shared" ref="M9:M13" si="1">G9*K9</f>
+        <f t="shared" ref="M9:M12" si="1">G9*K9</f>
         <v>4829.9999999999991</v>
       </c>
       <c r="N9">
@@ -1113,7 +1199,7 @@
         <v>4829.9999999999991</v>
       </c>
     </row>
-    <row r="10" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D10" s="27"/>
       <c r="E10" t="s">
         <v>32</v>
@@ -1145,7 +1231,7 @@
         <v>4829.9999999999991</v>
       </c>
     </row>
-    <row r="11" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D11" s="27"/>
       <c r="E11" t="s">
         <v>34</v>
@@ -1177,7 +1263,7 @@
         <v>7704.9999999999991</v>
       </c>
     </row>
-    <row r="12" spans="1:15" ht="132.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:15" ht="132.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D12" s="27"/>
       <c r="E12" s="24" t="s">
         <v>33</v>
@@ -1205,7 +1291,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:15" ht="132.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:15" ht="132.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D13" s="26" t="s">
         <v>37</v>
       </c>
@@ -1230,7 +1316,7 @@
         <v>4237.7499999999991</v>
       </c>
     </row>
-    <row r="14" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D14" s="26" t="s">
         <v>36</v>
       </c>
@@ -1255,7 +1341,7 @@
         <v>12500</v>
       </c>
     </row>
-    <row r="15" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D15" s="10" t="s">
         <v>15</v>
       </c>
@@ -1283,7 +1369,7 @@
         <v>10637.5</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="N16" t="s">
         <v>5</v>
       </c>
@@ -1292,8 +1378,8 @@
         <v>49941.7</v>
       </c>
     </row>
-    <row r="22" spans="4:6" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="23" spans="4:6" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="4:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="23" spans="4:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D23" s="21" t="s">
         <v>10</v>
       </c>
@@ -1304,7 +1390,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="24" spans="4:6" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="4:6" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D24" s="20" t="s">
         <v>15</v>
       </c>
@@ -1327,4 +1413,155 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC94B849-9301-455E-87D9-6A25F4EF2804}">
+  <dimension ref="C3:J13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="4" width="25" customWidth="1"/>
+    <col min="6" max="6" width="16.28515625" customWidth="1"/>
+    <col min="7" max="7" width="17.28515625" customWidth="1"/>
+    <col min="8" max="8" width="20.5703125" customWidth="1"/>
+    <col min="10" max="10" width="20.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="H3" s="2">
+        <v>1138200</v>
+      </c>
+      <c r="J3" s="4">
+        <f>H3/2</f>
+        <v>569100</v>
+      </c>
+    </row>
+    <row r="6" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="E6" s="36" t="s">
+        <v>38</v>
+      </c>
+      <c r="F6" s="36" t="s">
+        <v>39</v>
+      </c>
+      <c r="G6" s="36" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="3:10" ht="60" x14ac:dyDescent="0.25">
+      <c r="C7" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="D7" s="39">
+        <v>3</v>
+      </c>
+      <c r="E7" s="36">
+        <v>2</v>
+      </c>
+      <c r="F7" s="37">
+        <v>4880</v>
+      </c>
+      <c r="G7" s="37">
+        <f>E7*F7</f>
+        <v>9760</v>
+      </c>
+    </row>
+    <row r="8" spans="3:10" ht="60" x14ac:dyDescent="0.25">
+      <c r="C8" s="34" t="s">
+        <v>41</v>
+      </c>
+      <c r="D8" s="39">
+        <v>2</v>
+      </c>
+      <c r="E8" s="36">
+        <v>2</v>
+      </c>
+      <c r="F8" s="38">
+        <v>30164.05</v>
+      </c>
+      <c r="G8" s="37">
+        <f t="shared" ref="G8:G11" si="0">E8*F8</f>
+        <v>60328.1</v>
+      </c>
+      <c r="J8" s="40">
+        <f>J3-G13</f>
+        <v>20321.725000000093</v>
+      </c>
+    </row>
+    <row r="9" spans="3:10" ht="60" x14ac:dyDescent="0.25">
+      <c r="C9" s="34" t="s">
+        <v>42</v>
+      </c>
+      <c r="D9" s="39">
+        <v>5</v>
+      </c>
+      <c r="E9" s="36">
+        <v>4</v>
+      </c>
+      <c r="F9" s="38">
+        <v>21645.55</v>
+      </c>
+      <c r="G9" s="37">
+        <f t="shared" si="0"/>
+        <v>86582.2</v>
+      </c>
+    </row>
+    <row r="10" spans="3:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="C10" s="35" t="s">
+        <v>43</v>
+      </c>
+      <c r="D10" s="39">
+        <v>7</v>
+      </c>
+      <c r="E10" s="36">
+        <v>4</v>
+      </c>
+      <c r="F10" s="38">
+        <v>45482.05</v>
+      </c>
+      <c r="G10" s="37">
+        <f t="shared" si="0"/>
+        <v>181928.2</v>
+      </c>
+    </row>
+    <row r="11" spans="3:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="C11" s="34" t="s">
+        <v>44</v>
+      </c>
+      <c r="D11" s="39">
+        <v>1</v>
+      </c>
+      <c r="E11" s="36">
+        <v>1</v>
+      </c>
+      <c r="F11" s="38">
+        <v>138600</v>
+      </c>
+      <c r="G11" s="37">
+        <f t="shared" si="0"/>
+        <v>138600</v>
+      </c>
+    </row>
+    <row r="12" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="G12" s="41">
+        <f>SUM(G7:G11)</f>
+        <v>477198.5</v>
+      </c>
+    </row>
+    <row r="13" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="F13" s="42" t="s">
+        <v>45</v>
+      </c>
+      <c r="G13" s="43">
+        <f>G12*1.15</f>
+        <v>548778.27499999991</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/6. 2024 SUBVENCIONES OFICIOS/ESTIMACIONES.xlsx
+++ b/6. 2024 SUBVENCIONES OFICIOS/ESTIMACIONES.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Documents\GitHub\Matrices\6. 2024 SUBVENCIONES OFICIOS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67B4964D-9951-4CC1-BEFE-D6DC03AA9DA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA7971A4-EF79-45DC-96CE-E4386DE4AB28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="APLICACIONES iNFORMATICAS" sheetId="1" r:id="rId1"/>
@@ -167,10 +167,10 @@
     <t>COMPUTADORA PORTÁTIL AVANZADA (ZONA 1)</t>
   </si>
   <si>
-    <t>Impresora de Gran Volumen</t>
-  </si>
-  <si>
     <t>Total + impuesto</t>
+  </si>
+  <si>
+    <t>IMPRESORA DE GRAN VOLUMEN</t>
   </si>
 </sst>
 </file>
@@ -181,7 +181,7 @@
     <numFmt numFmtId="8" formatCode="&quot;L&quot;#,##0.00;[Red]\-&quot;L&quot;#,##0.00"/>
     <numFmt numFmtId="164" formatCode="&quot;L&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -445,6 +445,34 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="8" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="8" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -460,34 +488,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="8" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="8" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -806,16 +806,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="E5:O14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="K26" sqref="K26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="5" max="5" width="19.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="5:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="5:15">
       <c r="E5" t="s">
         <v>8</v>
       </c>
@@ -833,7 +833,7 @@
         <v>510047</v>
       </c>
     </row>
-    <row r="6" spans="5:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="5:15">
       <c r="F6" t="s">
         <v>2</v>
       </c>
@@ -850,7 +850,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="5:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="5:15">
       <c r="E7" t="s">
         <v>3</v>
       </c>
@@ -883,7 +883,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="5:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="5:15">
       <c r="E8" t="s">
         <v>4</v>
       </c>
@@ -922,7 +922,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="9" spans="5:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="5:15">
       <c r="E9" t="s">
         <v>6</v>
       </c>
@@ -961,7 +961,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="10" spans="5:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="5:15">
       <c r="H10" s="4">
         <f>SUM(H7:H9)</f>
         <v>28782</v>
@@ -975,7 +975,7 @@
         <v>41574</v>
       </c>
     </row>
-    <row r="14" spans="5:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="5:15">
       <c r="I14" s="2">
         <f>H10+K10+N10</f>
         <v>111173</v>
@@ -995,7 +995,7 @@
       <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="4" max="4" width="34" customWidth="1"/>
     <col min="5" max="5" width="21.42578125" customWidth="1"/>
@@ -1006,41 +1006,41 @@
     <col min="15" max="15" width="18.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15">
       <c r="A1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="4" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:15" ht="15.75" thickBot="1"/>
+    <row r="4" spans="1:15" ht="15.75" thickBot="1">
       <c r="D4" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="32" t="s">
+      <c r="E4" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="33"/>
-      <c r="G4" s="32" t="s">
+      <c r="F4" s="43"/>
+      <c r="G4" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="H4" s="33"/>
-      <c r="I4" s="32" t="s">
+      <c r="H4" s="43"/>
+      <c r="I4" s="42" t="s">
         <v>18</v>
       </c>
-      <c r="J4" s="33"/>
-      <c r="K4" s="32" t="s">
+      <c r="J4" s="43"/>
+      <c r="K4" s="42" t="s">
         <v>20</v>
       </c>
-      <c r="L4" s="33"/>
-      <c r="M4" s="28" t="s">
+      <c r="L4" s="43"/>
+      <c r="M4" s="38" t="s">
         <v>22</v>
       </c>
-      <c r="N4" s="29"/>
+      <c r="N4" s="39"/>
       <c r="O4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="39" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" ht="39">
       <c r="D5" s="12"/>
       <c r="E5" s="13"/>
       <c r="F5" s="14"/>
@@ -1059,7 +1059,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15">
       <c r="D6" s="9" t="s">
         <v>10</v>
       </c>
@@ -1098,7 +1098,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15">
       <c r="D7" s="9" t="s">
         <v>10</v>
       </c>
@@ -1133,8 +1133,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D8" s="27" t="s">
+    <row r="8" spans="1:15" ht="15.75">
+      <c r="D8" s="37" t="s">
         <v>35</v>
       </c>
       <c r="E8" t="s">
@@ -1167,8 +1167,8 @@
         <v>5201.45</v>
       </c>
     </row>
-    <row r="9" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D9" s="27"/>
+    <row r="9" spans="1:15" ht="15.75">
+      <c r="D9" s="37"/>
       <c r="E9" t="s">
         <v>31</v>
       </c>
@@ -1199,8 +1199,8 @@
         <v>4829.9999999999991</v>
       </c>
     </row>
-    <row r="10" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D10" s="27"/>
+    <row r="10" spans="1:15" ht="15.75">
+      <c r="D10" s="37"/>
       <c r="E10" t="s">
         <v>32</v>
       </c>
@@ -1231,8 +1231,8 @@
         <v>4829.9999999999991</v>
       </c>
     </row>
-    <row r="11" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D11" s="27"/>
+    <row r="11" spans="1:15" ht="15.75">
+      <c r="D11" s="37"/>
       <c r="E11" t="s">
         <v>34</v>
       </c>
@@ -1263,8 +1263,8 @@
         <v>7704.9999999999991</v>
       </c>
     </row>
-    <row r="12" spans="1:15" ht="132.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D12" s="27"/>
+    <row r="12" spans="1:15" ht="132.75" customHeight="1">
+      <c r="D12" s="37"/>
       <c r="E12" s="24" t="s">
         <v>33</v>
       </c>
@@ -1291,7 +1291,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:15" ht="132.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" ht="132.75" customHeight="1">
       <c r="D13" s="26" t="s">
         <v>37</v>
       </c>
@@ -1316,7 +1316,7 @@
         <v>4237.7499999999991</v>
       </c>
     </row>
-    <row r="14" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" ht="15" customHeight="1">
       <c r="D14" s="26" t="s">
         <v>36</v>
       </c>
@@ -1341,7 +1341,7 @@
         <v>12500</v>
       </c>
     </row>
-    <row r="15" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:15" ht="15.75" thickBot="1">
       <c r="D15" s="10" t="s">
         <v>15</v>
       </c>
@@ -1369,7 +1369,7 @@
         <v>10637.5</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15">
       <c r="N16" t="s">
         <v>5</v>
       </c>
@@ -1378,8 +1378,8 @@
         <v>49941.7</v>
       </c>
     </row>
-    <row r="22" spans="4:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="23" spans="4:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="4:6" ht="15.75" thickBot="1"/>
+    <row r="23" spans="4:6" ht="30.75" thickBot="1">
       <c r="D23" s="21" t="s">
         <v>10</v>
       </c>
@@ -1390,14 +1390,14 @@
         <v>25</v>
       </c>
     </row>
-    <row r="24" spans="4:6" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="4:6" ht="36.75" customHeight="1" thickBot="1">
       <c r="D24" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="E24" s="30" t="s">
+      <c r="E24" s="40" t="s">
         <v>23</v>
       </c>
-      <c r="F24" s="31"/>
+      <c r="F24" s="41"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -1419,20 +1419,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC94B849-9301-455E-87D9-6A25F4EF2804}">
   <dimension ref="C3:J13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView topLeftCell="C1" zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
+      <selection activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="3" max="4" width="25" customWidth="1"/>
+    <col min="3" max="3" width="43.5703125" customWidth="1"/>
+    <col min="4" max="4" width="25" customWidth="1"/>
     <col min="6" max="6" width="16.28515625" customWidth="1"/>
     <col min="7" max="7" width="17.28515625" customWidth="1"/>
     <col min="8" max="8" width="20.5703125" customWidth="1"/>
     <col min="10" max="10" width="20.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="3:10">
       <c r="H3" s="2">
         <v>1138200</v>
       </c>
@@ -1441,122 +1442,122 @@
         <v>569100</v>
       </c>
     </row>
-    <row r="6" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="E6" s="36" t="s">
+    <row r="6" spans="3:10">
+      <c r="E6" s="29" t="s">
         <v>38</v>
       </c>
-      <c r="F6" s="36" t="s">
+      <c r="F6" s="29" t="s">
         <v>39</v>
       </c>
-      <c r="G6" s="36" t="s">
+      <c r="G6" s="29" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="3:10" ht="60" x14ac:dyDescent="0.25">
-      <c r="C7" s="34" t="s">
+    <row r="7" spans="3:10" ht="60">
+      <c r="C7" s="27" t="s">
         <v>40</v>
       </c>
-      <c r="D7" s="39">
+      <c r="D7" s="32">
         <v>3</v>
       </c>
-      <c r="E7" s="36">
+      <c r="E7" s="29">
         <v>2</v>
       </c>
-      <c r="F7" s="37">
+      <c r="F7" s="30">
         <v>4880</v>
       </c>
-      <c r="G7" s="37">
+      <c r="G7" s="30">
         <f>E7*F7</f>
         <v>9760</v>
       </c>
     </row>
-    <row r="8" spans="3:10" ht="60" x14ac:dyDescent="0.25">
-      <c r="C8" s="34" t="s">
+    <row r="8" spans="3:10" ht="60">
+      <c r="C8" s="27" t="s">
         <v>41</v>
       </c>
-      <c r="D8" s="39">
+      <c r="D8" s="32">
         <v>2</v>
       </c>
-      <c r="E8" s="36">
+      <c r="E8" s="29">
         <v>2</v>
       </c>
-      <c r="F8" s="38">
+      <c r="F8" s="31">
         <v>30164.05</v>
       </c>
-      <c r="G8" s="37">
+      <c r="G8" s="30">
         <f t="shared" ref="G8:G11" si="0">E8*F8</f>
         <v>60328.1</v>
       </c>
-      <c r="J8" s="40">
+      <c r="J8" s="33">
         <f>J3-G13</f>
         <v>20321.725000000093</v>
       </c>
     </row>
-    <row r="9" spans="3:10" ht="60" x14ac:dyDescent="0.25">
-      <c r="C9" s="34" t="s">
+    <row r="9" spans="3:10" ht="60">
+      <c r="C9" s="27" t="s">
         <v>42</v>
       </c>
-      <c r="D9" s="39">
+      <c r="D9" s="32">
         <v>5</v>
       </c>
-      <c r="E9" s="36">
+      <c r="E9" s="29">
         <v>4</v>
       </c>
-      <c r="F9" s="38">
+      <c r="F9" s="31">
         <v>21645.55</v>
       </c>
-      <c r="G9" s="37">
+      <c r="G9" s="30">
         <f t="shared" si="0"/>
         <v>86582.2</v>
       </c>
     </row>
-    <row r="10" spans="3:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="C10" s="35" t="s">
+    <row r="10" spans="3:10" ht="30">
+      <c r="C10" s="28" t="s">
         <v>43</v>
       </c>
-      <c r="D10" s="39">
+      <c r="D10" s="32">
         <v>7</v>
       </c>
-      <c r="E10" s="36">
+      <c r="E10" s="29">
         <v>4</v>
       </c>
-      <c r="F10" s="38">
+      <c r="F10" s="31">
         <v>45482.05</v>
       </c>
-      <c r="G10" s="37">
+      <c r="G10" s="30">
         <f t="shared" si="0"/>
         <v>181928.2</v>
       </c>
     </row>
-    <row r="11" spans="3:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="C11" s="34" t="s">
-        <v>44</v>
-      </c>
-      <c r="D11" s="39">
+    <row r="11" spans="3:10">
+      <c r="C11" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="D11" s="32">
         <v>1</v>
       </c>
-      <c r="E11" s="36">
+      <c r="E11" s="29">
         <v>1</v>
       </c>
-      <c r="F11" s="38">
+      <c r="F11" s="31">
         <v>138600</v>
       </c>
-      <c r="G11" s="37">
+      <c r="G11" s="30">
         <f t="shared" si="0"/>
         <v>138600</v>
       </c>
     </row>
-    <row r="12" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="G12" s="41">
+    <row r="12" spans="3:10">
+      <c r="G12" s="34">
         <f>SUM(G7:G11)</f>
         <v>477198.5</v>
       </c>
     </row>
-    <row r="13" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="F13" s="42" t="s">
-        <v>45</v>
-      </c>
-      <c r="G13" s="43">
+    <row r="13" spans="3:10">
+      <c r="F13" s="35" t="s">
+        <v>44</v>
+      </c>
+      <c r="G13" s="36">
         <f>G12*1.15</f>
         <v>548778.27499999991</v>
       </c>
